--- a/biology/Botanique/Pelouse_de_Reuilly/Pelouse_de_Reuilly.xlsx
+++ b/biology/Botanique/Pelouse_de_Reuilly/Pelouse_de_Reuilly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-D'une superficie d'environ 25 hectares[1], la pelouse de Reuilly est un vaste espace entouré par des arbres situé à l'extrémité ouest du bois de Vincennes et à côté du lac Daumesnil.
+D'une superficie d'environ 25 hectares, la pelouse de Reuilly est un vaste espace entouré par des arbres situé à l'extrémité ouest du bois de Vincennes et à côté du lac Daumesnil.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La section du boulevard périphérique de Paris qui coupe la pelouse de Reuilly est couverte. En partant de la porte de Reuilly, l’accès  s’effectue via la place du Cardinal-Lavigerie.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle tire son nom de la porte de Reuilly (boulevard Poniatowski).
 Le terme de « pelouse » peut étonner de nos jours, mais en effet, le site a été une grande pelouse. Au fur et à mesure des années et des activités, les graviers ont rempli les trous dans l'herbe pour, petit à petit, devenir majoritaires sur l'ensemble du terrain.
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La pelouse de Reuilly, d'une surface d'environ 10 hectares, est l'un des vestiges de l'Exposition coloniale internationale qui se déroula du 6 mai au 15 novembre 1931. L'exposition nécessitait un profond réaménagement de l'ensemble du bois de Vincennes et suivant le démontage de la majorité des pavillons, après l'exposition, la surface comportant l'ancienne allée principale de l'exposition fut conservée pour accueillir de futurs évènements.
 </t>
@@ -606,7 +624,9 @@
           <t>Manifestations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La pelouse de Reuilly a accueilli la Fête de l’Humanité de 1966 à 1970 et la Fête des Bleu-blanc-rouge de 1993 à 2001 réunissant les diverses sensibilités de l'extrême-droite autour du Front national.
 La pelouse accueille de nombreuses manifestations politiques ou associatives, dont la fameuse Foire du Trône, tous les ans depuis 1964, ou le festival Paris est ludique ! depuis 2016. De même, en période de fin d'année, plusieurs cirques, tels que le cirque Pinder ou le cirque Arlette Gruss s'installent pour accueillir le public parisien.
